--- a/data/trans_dic/P16A10-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Edad-trans_dic.xlsx
@@ -748,36 +748,36 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.009505694174258736</v>
+        <v>0.008338171416156472</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01261145254994298</v>
+        <v>0.01169905621406799</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.01163855957355229</v>
+        <v>0.009999388200045837</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01309931277815448</v>
+        <v>0.0115625943413878</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01273743493962858</v>
+        <v>0.01513115761578473</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04714986896475245</v>
+        <v>0.04165725605912234</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.006299637396712142</v>
+        <v>0.006508697529901344</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.007727793593681953</v>
+        <v>0.008205036748240444</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.006153076213108923</v>
+        <v>0.006186803020333229</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0221571346664099</v>
+        <v>0.02200061464444233</v>
       </c>
     </row>
     <row r="7">
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001494321478962189</v>
+        <v>0.001491942851434808</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.00340973188832425</v>
+        <v>0.00346762228310442</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0006359229778681658</v>
+        <v>0.0006392524422671712</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.00142752051145687</v>
+        <v>0.0008044667400628624</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.003043365024987012</v>
+        <v>0.003276973167879247</v>
       </c>
       <c r="N8" s="5" t="n">
         <v>0</v>
@@ -878,38 +878,38 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.006402490266551267</v>
+        <v>0.006451152069617506</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01669429285350187</v>
+        <v>0.0159710632571954</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01583725572715257</v>
+        <v>0.01476996650314175</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="n">
-        <v>0.009246226447601697</v>
+        <v>0.0101463305404113</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01071648103509988</v>
+        <v>0.007749326219829435</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02062090099849994</v>
+        <v>0.02065434725652796</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01378904236965224</v>
+        <v>0.01449064520148521</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.005738215774372704</v>
+        <v>0.005707194275809757</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.009644142637213658</v>
+        <v>0.009737983102067383</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01302304632879926</v>
+        <v>0.01298223468589127</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.006985367947968806</v>
+        <v>0.006246547002275214</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.008574684282978881</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.007021836329813369</v>
+        <v>0.00702183632981337</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.00927523820421213</v>
@@ -968,40 +968,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002836171209520497</v>
+        <v>0.002816622725751859</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.002773916262557893</v>
+        <v>0.002773365299941347</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.001857896071919677</v>
+        <v>0.001856531002868254</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.00452456159657866</v>
+        <v>0.004803525238428676</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.006486447925316145</v>
+        <v>0.006830789347431066</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0029339135131634</v>
+        <v>0.002877685929528341</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.002415336213966205</v>
+        <v>0.002367480742704987</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.005172433279253954</v>
+        <v>0.005080124232053331</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.005811949330005274</v>
+        <v>0.005801442576416714</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.002816770087569922</v>
+        <v>0.002231740918754067</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.003183367239061572</v>
+        <v>0.00337430727517633</v>
       </c>
     </row>
     <row r="12">
@@ -1012,40 +1012,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01473052592372997</v>
+        <v>0.01600512129517863</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01482180807112635</v>
+        <v>0.01578243238872729</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.009055958414456314</v>
+        <v>0.009744353439938087</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01690176527120367</v>
+        <v>0.01669449750629842</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02159719705980789</v>
+        <v>0.02230846571929058</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02550005556801713</v>
+        <v>0.02694310622472954</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01746046372396246</v>
+        <v>0.01737345930190271</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01420306645159543</v>
+        <v>0.01410711225409301</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01570469960639085</v>
+        <v>0.01610270268008921</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01797495812475568</v>
+        <v>0.01721986245054877</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01053813653972019</v>
+        <v>0.01082935953186908</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01255629834073364</v>
+        <v>0.01316103716997537</v>
       </c>
     </row>
     <row r="13">
@@ -1069,7 +1069,7 @@
         <v>0.0302525236402529</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03941632024050888</v>
+        <v>0.03941632024050887</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03345200799494161</v>
@@ -1093,7 +1093,7 @@
         <v>0.02640838352076727</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02732764964278395</v>
+        <v>0.02732764964278396</v>
       </c>
     </row>
     <row r="14">
@@ -1104,40 +1104,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01354014874000828</v>
+        <v>0.01394848164521388</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01128376794165132</v>
+        <v>0.01167156880303364</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01921381583090449</v>
+        <v>0.01893234251028221</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02586909566879009</v>
+        <v>0.02665404220412003</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02069206830660717</v>
+        <v>0.01949109179526518</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.005278443576057661</v>
+        <v>0.005240868508486031</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01272655182359675</v>
+        <v>0.01263940554746769</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.009447462491357734</v>
+        <v>0.009611435887348403</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.0191980185116432</v>
+        <v>0.01906747857991633</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01102010517266214</v>
+        <v>0.01111739680636917</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01857720803323464</v>
+        <v>0.01861965398669902</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02039929441957989</v>
+        <v>0.01929815008025907</v>
       </c>
     </row>
     <row r="15">
@@ -1148,40 +1148,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0418683970450358</v>
+        <v>0.0428966631256605</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03811069310253875</v>
+        <v>0.03778659001120057</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04893537004508596</v>
+        <v>0.04614566203269133</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05609691603762697</v>
+        <v>0.0575365883252622</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05294602363493097</v>
+        <v>0.05191840812920758</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02477109930650982</v>
+        <v>0.02469549883853544</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03717277429178548</v>
+        <v>0.03643927283218057</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02412046214263971</v>
+        <v>0.02431218250932993</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04047028526061014</v>
+        <v>0.04120553771758926</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02624221595541417</v>
+        <v>0.02708089480998845</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03724624402977665</v>
+        <v>0.03676445894016769</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03714178219548656</v>
+        <v>0.03761472100449347</v>
       </c>
     </row>
     <row r="16">
@@ -1205,7 +1205,7 @@
         <v>0.1063684360058329</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.0758924475277675</v>
+        <v>0.07589244752776748</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.06102507825159757</v>
@@ -1240,40 +1240,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08126298211870574</v>
+        <v>0.08308635371918208</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06122871101459823</v>
+        <v>0.06042686212191914</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08067533124197997</v>
+        <v>0.08035798003340566</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0581034480559079</v>
+        <v>0.05735332430966451</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0407063273014304</v>
+        <v>0.03880793868322227</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04176005418437139</v>
+        <v>0.03969267334733101</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01558062330078493</v>
+        <v>0.01574165427457306</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03380520263860722</v>
+        <v>0.03353999716438646</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06613114231391769</v>
+        <v>0.06748643663313388</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05648532507138754</v>
+        <v>0.05567026971931745</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05082966195427292</v>
+        <v>0.0508618659805553</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04840908483408554</v>
+        <v>0.04865033022283598</v>
       </c>
     </row>
     <row r="18">
@@ -1284,40 +1284,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1451515618843063</v>
+        <v>0.1462493870753986</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.112854572852381</v>
+        <v>0.1157663445130474</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1392758145315141</v>
+        <v>0.1417147823166504</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09850025459256767</v>
+        <v>0.09818908429650856</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08959416721463324</v>
+        <v>0.08476241600901444</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08811946806872747</v>
+        <v>0.08453969643189602</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04921302838319142</v>
+        <v>0.04531144735321019</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06298148213539946</v>
+        <v>0.06100811189107387</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1053356507367481</v>
+        <v>0.1058393840426611</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09144224498896039</v>
+        <v>0.08973484640034406</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.08526419854441211</v>
+        <v>0.08400086212337902</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07244029108351284</v>
+        <v>0.07300909426199514</v>
       </c>
     </row>
     <row r="19">
@@ -1376,40 +1376,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1363690707357835</v>
+        <v>0.1370065169692271</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.116639240107232</v>
+        <v>0.1138926611843368</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1614307491443949</v>
+        <v>0.1550763001619968</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1004138885930577</v>
+        <v>0.09905911700979185</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1192612526892001</v>
+        <v>0.1178538194412811</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07674420542944216</v>
+        <v>0.07734080529513389</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1002237469681793</v>
+        <v>0.1013091408033502</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06452452048365345</v>
+        <v>0.06458026742899782</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1320130368883525</v>
+        <v>0.1338912367664231</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.09887747482411549</v>
+        <v>0.1039930432590637</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1397379208059045</v>
+        <v>0.1407026113745717</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.08717530327760974</v>
+        <v>0.08721922053115994</v>
       </c>
     </row>
     <row r="21">
@@ -1420,40 +1420,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2253568521311989</v>
+        <v>0.2185438529724239</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1996103138689385</v>
+        <v>0.1933374150782893</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2480085957697302</v>
+        <v>0.244823297237991</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.153007406395804</v>
+        <v>0.1545557438501637</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1918562220259318</v>
+        <v>0.1909559881828286</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1416304256386285</v>
+        <v>0.1426718590191348</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1734493804630855</v>
+        <v>0.170700232557135</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.103239121281029</v>
+        <v>0.1054866120391881</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1899593804157672</v>
+        <v>0.1892277609598502</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1543810011490199</v>
+        <v>0.1547981716924797</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1977039035648454</v>
+        <v>0.1950876335737669</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1194581285059653</v>
+        <v>0.1207219022699187</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.2439700267076051</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2451228553694135</v>
+        <v>0.2451228553694134</v>
       </c>
     </row>
     <row r="23">
@@ -1512,40 +1512,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2469499278755042</v>
+        <v>0.2529055841122638</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2378788526590787</v>
+        <v>0.2397225980771702</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.191588979541652</v>
+        <v>0.1942457122710546</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2056470287515492</v>
+        <v>0.2088964622641685</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1786926193790302</v>
+        <v>0.1776297165904165</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1855171279603444</v>
+        <v>0.1825127293098505</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1976541134979758</v>
+        <v>0.2031612659967769</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2169133729521269</v>
+        <v>0.2155117555711351</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2187877322204049</v>
+        <v>0.2195456392175051</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2183170297602521</v>
+        <v>0.2203388090467298</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2097959512911879</v>
+        <v>0.2104129645579681</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2219384637673353</v>
+        <v>0.219600225168234</v>
       </c>
     </row>
     <row r="24">
@@ -1556,40 +1556,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3741585620516888</v>
+        <v>0.3742275759758089</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3590153373979844</v>
+        <v>0.3618735915338391</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.28889806792875</v>
+        <v>0.2889511434460745</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2880343304706386</v>
+        <v>0.2885977361034618</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.272035058050262</v>
+        <v>0.2751913641600332</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2728221861236747</v>
+        <v>0.2725715087778722</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3001030621974143</v>
+        <v>0.295707768755203</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.278365904854567</v>
+        <v>0.276727341645581</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2959674499107994</v>
+        <v>0.2966635582642771</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2879261587031369</v>
+        <v>0.291420862689902</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2829216201971629</v>
+        <v>0.2768374708816414</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.269701387756388</v>
+        <v>0.2704962754318165</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.05388117087495888</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.05328229610739405</v>
+        <v>0.05328229610739404</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.05353354556355526</v>
@@ -1648,40 +1648,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.04701473760902383</v>
+        <v>0.04647995210003563</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04502497499572403</v>
+        <v>0.04544814033705339</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05205982256876356</v>
+        <v>0.05224068825749241</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05092877560751885</v>
+        <v>0.05136723651055457</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04564337302289133</v>
+        <v>0.04608203556340804</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04183017457217149</v>
+        <v>0.04168181964496705</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.04598019206020279</v>
+        <v>0.0461056595878053</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.04786084518390744</v>
+        <v>0.04732481572855537</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04796178708258186</v>
+        <v>0.04817304363647343</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.04494774127067262</v>
+        <v>0.04551933752117942</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.05102907691682794</v>
+        <v>0.05126600867880824</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.05063851515737276</v>
+        <v>0.05102124525646379</v>
       </c>
     </row>
     <row r="27">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06197690694846397</v>
+        <v>0.06262788442612696</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.06077608485426605</v>
+        <v>0.06138974272855036</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.06865452163784481</v>
+        <v>0.06800057011418693</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06507268869030432</v>
+        <v>0.06547926145113234</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.06124516687195319</v>
+        <v>0.06276424115038762</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.05534014423076206</v>
+        <v>0.05617083264478458</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.06239024958886035</v>
+        <v>0.06234919574456235</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.05940008078495942</v>
+        <v>0.05922947699358394</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.05871641829492615</v>
+        <v>0.05952064703266779</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.05573682442305803</v>
+        <v>0.05602626753457222</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.06276412468613551</v>
+        <v>0.06239197226252492</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.06031684192540772</v>
+        <v>0.06023362422898087</v>
       </c>
     </row>
     <row r="28">
@@ -2039,36 +2039,36 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4696</v>
+        <v>4120</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5714</v>
+        <v>5301</v>
       </c>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>5441</v>
+        <v>4675</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5624</v>
+        <v>4964</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5041</v>
+        <v>5988</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17092</v>
+        <v>15101</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>6057</v>
+        <v>6258</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>6819</v>
+        <v>7240</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>5016</v>
+        <v>5044</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>17068</v>
+        <v>16947</v>
       </c>
     </row>
     <row r="8">
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
@@ -2187,19 +2187,19 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1922</v>
+        <v>1954</v>
       </c>
       <c r="J10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1849</v>
+        <v>1042</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3512</v>
+        <v>3782</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0</v>
@@ -2213,38 +2213,38 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4709</v>
+        <v>4745</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11456</v>
+        <v>10960</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9352</v>
+        <v>8722</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="n">
-        <v>5783</v>
+        <v>6346</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6529</v>
+        <v>4721</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>11621</v>
+        <v>11640</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>6909</v>
+        <v>7261</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>7810</v>
+        <v>7767</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>12494</v>
+        <v>12615</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>15029</v>
+        <v>14982</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>6832</v>
+        <v>6109</v>
       </c>
     </row>
     <row r="12">
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1808</v>
+        <v>1796</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>1886</v>
@@ -2359,28 +2359,28 @@
         <v>1153</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3121</v>
+        <v>3313</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4598</v>
+        <v>4842</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1940</v>
+        <v>1903</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1503</v>
+        <v>1473</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6866</v>
+        <v>6743</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8072</v>
+        <v>8058</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3748</v>
+        <v>2969</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>3957</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="15">
@@ -2391,40 +2391,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9393</v>
+        <v>10206</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10080</v>
+        <v>10733</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>6059</v>
+        <v>6520</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10493</v>
+        <v>10365</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14897</v>
+        <v>15387</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>18075</v>
+        <v>19098</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>11548</v>
+        <v>11491</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8836</v>
+        <v>8777</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>20846</v>
+        <v>21375</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>24965</v>
+        <v>23916</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>14021</v>
+        <v>14408</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>15607</v>
+        <v>16359</v>
       </c>
     </row>
     <row r="16">
@@ -2527,40 +2527,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7029</v>
+        <v>7241</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6935</v>
+        <v>7174</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>12413</v>
+        <v>12231</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>18124</v>
+        <v>18674</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>10670</v>
+        <v>10050</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3241</v>
+        <v>3218</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8261</v>
+        <v>8204</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6962</v>
+        <v>7083</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>19866</v>
+        <v>19731</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>13540</v>
+        <v>13660</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>24060</v>
+        <v>24115</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>29324</v>
+        <v>27741</v>
       </c>
     </row>
     <row r="19">
@@ -2571,40 +2571,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>21736</v>
+        <v>22270</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>23423</v>
+        <v>23224</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>31615</v>
+        <v>29812</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>39302</v>
+        <v>40311</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>27301</v>
+        <v>26771</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>15211</v>
+        <v>15165</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>24128</v>
+        <v>23652</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>17774</v>
+        <v>17915</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>41878</v>
+        <v>42639</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>32244</v>
+        <v>33274</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>48239</v>
+        <v>47615</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>53391</v>
+        <v>54071</v>
       </c>
     </row>
     <row r="20">
@@ -2707,40 +2707,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>31425</v>
+        <v>32130</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>26227</v>
+        <v>25883</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>38556</v>
+        <v>38405</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>35348</v>
+        <v>34891</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>16445</v>
+        <v>15678</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>18657</v>
+        <v>17734</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>7741</v>
+        <v>7821</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>20511</v>
+        <v>20350</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>52290</v>
+        <v>53361</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>49431</v>
+        <v>48718</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>49547</v>
+        <v>49578</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>58822</v>
+        <v>59115</v>
       </c>
     </row>
     <row r="23">
@@ -2751,40 +2751,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>56132</v>
+        <v>56556</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>48341</v>
+        <v>49588</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>66562</v>
+        <v>67728</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>59924</v>
+        <v>59734</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>36195</v>
+        <v>34243</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>39370</v>
+        <v>37770</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>24451</v>
+        <v>22513</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>38213</v>
+        <v>37016</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>83288</v>
+        <v>83687</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>80023</v>
+        <v>78529</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>83113</v>
+        <v>81881</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>88022</v>
+        <v>88713</v>
       </c>
     </row>
     <row r="24">
@@ -2887,40 +2887,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>39899</v>
+        <v>40086</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>35901</v>
+        <v>35056</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>53971</v>
+        <v>51847</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>40876</v>
+        <v>40325</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>40899</v>
+        <v>40416</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>27091</v>
+        <v>27301</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>37861</v>
+        <v>38271</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>28337</v>
+        <v>28361</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>83897</v>
+        <v>85090</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>65338</v>
+        <v>68718</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>99506</v>
+        <v>100193</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>73772</v>
+        <v>73809</v>
       </c>
     </row>
     <row r="27">
@@ -2931,40 +2931,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>65936</v>
+        <v>63942</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>61439</v>
+        <v>59508</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>82917</v>
+        <v>81852</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>62286</v>
+        <v>62917</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>65794</v>
+        <v>65485</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>49996</v>
+        <v>50363</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>65523</v>
+        <v>64484</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>45339</v>
+        <v>46326</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>120722</v>
+        <v>120257</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>102014</v>
+        <v>102290</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>140783</v>
+        <v>138920</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>101091</v>
+        <v>102160</v>
       </c>
     </row>
     <row r="28">
@@ -3067,40 +3067,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>51831</v>
+        <v>53081</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>59434</v>
+        <v>59895</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>49238</v>
+        <v>49921</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>63791</v>
+        <v>64799</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>59667</v>
+        <v>59312</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>71969</v>
+        <v>70803</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>79095</v>
+        <v>81299</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>100520</v>
+        <v>99870</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>118975</v>
+        <v>119387</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>139240</v>
+        <v>140529</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>137871</v>
+        <v>138276</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>171693</v>
+        <v>169884</v>
       </c>
     </row>
     <row r="31">
@@ -3111,40 +3111,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>78530</v>
+        <v>78544</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>89700</v>
+        <v>90414</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>74246</v>
+        <v>74260</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>89348</v>
+        <v>89522</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>90835</v>
+        <v>91889</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>105838</v>
+        <v>105740</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>120092</v>
+        <v>118333</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>128998</v>
+        <v>128238</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>160944</v>
+        <v>161323</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>183636</v>
+        <v>185864</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>185927</v>
+        <v>181928</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>208643</v>
+        <v>209258</v>
       </c>
     </row>
     <row r="32">
@@ -3247,40 +3247,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>153998</v>
+        <v>152246</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>153986</v>
+        <v>155433</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>176709</v>
+        <v>177323</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>179869</v>
+        <v>181418</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>154238</v>
+        <v>155720</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>148462</v>
+        <v>147936</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>162979</v>
+        <v>163423</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>178613</v>
+        <v>176613</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>319172</v>
+        <v>320578</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>313249</v>
+        <v>317232</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>354085</v>
+        <v>355729</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>367823</v>
+        <v>370603</v>
       </c>
     </row>
     <row r="35">
@@ -3291,40 +3291,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>203007</v>
+        <v>205139</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>207854</v>
+        <v>209953</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>233037</v>
+        <v>230818</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>229822</v>
+        <v>231258</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>206959</v>
+        <v>212093</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>196412</v>
+        <v>199360</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>221145</v>
+        <v>220999</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>221677</v>
+        <v>221040</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>390741</v>
+        <v>396093</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>388440</v>
+        <v>390457</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>435513</v>
+        <v>432931</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>438124</v>
+        <v>437519</v>
       </c>
     </row>
     <row r="36">
